--- a/biology/Médecine/Stratégie_DOTS/Stratégie_DOTS.xlsx
+++ b/biology/Médecine/Stratégie_DOTS/Stratégie_DOTS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_DOTS</t>
+          <t>Stratégie_DOTS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La stratégie DOTS (de l'anglais, directly observed treatment, short-course) est un « traitement de brève durée sous surveillance directe ». C'est une stratégie de lutte contre la tuberculose recommandée par l'OMS[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stratégie DOTS (de l'anglais, directly observed treatment, short-course) est un « traitement de brève durée sous surveillance directe ». C'est une stratégie de lutte contre la tuberculose recommandée par l'OMS.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_DOTS</t>
+          <t>Stratégie_DOTS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle repose sur cinq éléments :
 La volonté politique des gouvernements concernant le financement et l'organisation ;
@@ -520,7 +534,7 @@
 Une logistique pharmacologique efficace ;
 Une évaluation constante de la situation.
 Le but est d'éviter le développement de bactéries multirésistantes (bacilles de la tuberculose) aux antibiotiques dû à des traitements anarchiques.
-La politique consistant à traiter le plus grand nombre à moindre coût, laissant de côté les cas de multi-résistances ayant l'effet pervers de les multiplier, les traitements appropriés aux cas multi-résistants sont maintenant intégrés dans la stratégie DOTS-plus[2].  Cette stratégie est associée à l'introduction des médicaments de seconde ligne dans la liste des médicaments essentiels de l'OMS et de leur disponibilité à moindre coût pour les populations défavorisées.
+La politique consistant à traiter le plus grand nombre à moindre coût, laissant de côté les cas de multi-résistances ayant l'effet pervers de les multiplier, les traitements appropriés aux cas multi-résistants sont maintenant intégrés dans la stratégie DOTS-plus.  Cette stratégie est associée à l'introduction des médicaments de seconde ligne dans la liste des médicaments essentiels de l'OMS et de leur disponibilité à moindre coût pour les populations défavorisées.
 </t>
         </is>
       </c>
